--- a/static/upload_sheet/SE_5.xlsx
+++ b/static/upload_sheet/SE_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>2024-03-17</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-30</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -504,6 +509,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -539,6 +549,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -574,6 +589,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -609,6 +629,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -644,6 +669,11 @@
           <t>P</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -679,6 +709,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -714,6 +749,11 @@
           <t>P</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -749,6 +789,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -784,6 +829,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -819,6 +869,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -854,6 +909,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -889,6 +949,11 @@
           <t>P</t>
         </is>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -924,6 +989,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -959,6 +1029,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -994,6 +1069,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1029,6 +1109,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1064,6 +1149,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1099,6 +1189,11 @@
           <t>P</t>
         </is>
       </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1134,6 +1229,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1169,6 +1269,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1204,6 +1309,11 @@
           <t>P</t>
         </is>
       </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1239,6 +1349,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1274,6 +1389,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1309,6 +1429,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1344,6 +1469,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1379,6 +1509,11 @@
           <t>P</t>
         </is>
       </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1414,6 +1549,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1449,6 +1589,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1484,6 +1629,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1519,6 +1669,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1554,6 +1709,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1589,6 +1749,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1624,6 +1789,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1659,6 +1829,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1694,6 +1869,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1729,6 +1909,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1764,6 +1949,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1799,6 +1989,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1834,6 +2029,11 @@
           <t>P</t>
         </is>
       </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1869,6 +2069,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1904,6 +2109,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1939,6 +2149,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1974,6 +2189,11 @@
           <t>P</t>
         </is>
       </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2009,6 +2229,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2044,6 +2269,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2079,6 +2309,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2114,6 +2349,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2149,6 +2389,11 @@
           <t>P</t>
         </is>
       </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2184,6 +2429,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2219,6 +2469,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2254,6 +2509,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2289,6 +2549,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2324,6 +2589,11 @@
           <t>P</t>
         </is>
       </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2359,6 +2629,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2394,6 +2669,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2429,6 +2709,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2464,6 +2749,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2499,6 +2789,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2534,6 +2829,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2569,6 +2869,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2604,6 +2909,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2639,6 +2949,11 @@
           <t>P</t>
         </is>
       </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2674,6 +2989,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2709,6 +3029,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2744,6 +3069,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2779,6 +3109,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -2814,6 +3149,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -2849,6 +3189,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2884,6 +3229,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -2919,6 +3269,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -2954,6 +3309,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -2989,6 +3349,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -3024,6 +3389,11 @@
           <t>P</t>
         </is>
       </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -3059,6 +3429,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -3094,6 +3469,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -3129,6 +3509,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -3164,6 +3549,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -3199,6 +3589,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -3234,6 +3629,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -3269,6 +3669,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -3304,6 +3709,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -3339,6 +3749,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -3374,6 +3789,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -3409,6 +3829,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -3444,6 +3869,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -3479,6 +3909,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -3514,6 +3949,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -3549,6 +3989,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -3584,6 +4029,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -3619,6 +4069,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -3654,6 +4109,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -3689,6 +4149,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -3724,6 +4189,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -3759,6 +4229,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -3794,6 +4269,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -3829,6 +4309,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -3864,6 +4349,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -3899,6 +4389,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -3934,6 +4429,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -3965,6 +4465,11 @@
         </is>
       </c>
       <c r="G101" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
         <is>
           <t>A</t>
         </is>

--- a/static/upload_sheet/SE_5.xlsx
+++ b/static/upload_sheet/SE_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>2024-03-30</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-20</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -514,6 +519,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -554,6 +564,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -594,6 +609,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -634,6 +654,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -674,6 +699,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -714,6 +744,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -754,6 +789,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -794,6 +834,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -834,6 +879,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -874,6 +924,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -914,6 +969,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -954,6 +1014,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -994,6 +1059,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1034,6 +1104,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1074,6 +1149,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1114,6 +1194,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1154,6 +1239,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1194,6 +1284,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1234,6 +1329,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1274,6 +1374,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1314,6 +1419,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1354,6 +1464,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1394,6 +1509,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1434,6 +1554,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1474,6 +1599,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1514,6 +1644,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1554,6 +1689,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1594,6 +1734,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1634,6 +1779,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1674,6 +1824,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1714,6 +1869,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1754,6 +1914,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1794,6 +1959,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1834,6 +2004,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1874,6 +2049,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1914,6 +2094,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1954,6 +2139,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1994,6 +2184,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2034,6 +2229,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2074,6 +2274,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2114,6 +2319,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2154,6 +2364,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2194,6 +2409,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2234,6 +2454,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2274,6 +2499,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2314,6 +2544,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2354,6 +2589,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2394,6 +2634,11 @@
           <t>P</t>
         </is>
       </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2434,6 +2679,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2474,6 +2724,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2514,6 +2769,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2554,6 +2814,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2594,6 +2859,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2634,6 +2904,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2674,6 +2949,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2714,6 +2994,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2754,6 +3039,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2794,6 +3084,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2834,6 +3129,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2874,6 +3174,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2914,6 +3219,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2954,6 +3264,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2994,6 +3309,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3034,6 +3354,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3074,6 +3399,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3114,6 +3444,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -3154,6 +3489,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -3194,6 +3534,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -3234,6 +3579,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -3274,6 +3624,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -3314,6 +3669,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -3354,6 +3714,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -3394,6 +3759,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -3434,6 +3804,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -3474,6 +3849,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -3514,6 +3894,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -3554,6 +3939,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -3594,6 +3984,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -3634,6 +4029,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -3674,6 +4074,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -3714,6 +4119,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -3754,6 +4164,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -3794,6 +4209,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -3834,6 +4254,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -3874,6 +4299,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -3914,6 +4344,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -3954,6 +4389,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -3994,6 +4434,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -4034,6 +4479,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -4074,6 +4524,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -4114,6 +4569,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -4154,6 +4614,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -4194,6 +4659,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -4234,6 +4704,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -4274,6 +4749,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -4314,6 +4794,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -4354,6 +4839,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -4394,6 +4884,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -4434,6 +4929,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -4470,6 +4970,11 @@
         </is>
       </c>
       <c r="H101" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
         <is>
           <t>A</t>
         </is>
